--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1606677.738381477</v>
+        <v>1604425.658670269</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>225.1969906985278</v>
       </c>
       <c r="E2" t="n">
-        <v>197.1871596835326</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414526</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>176.7410210396702</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>203.7029035467937</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>2.834206670629414</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.6710892234293</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>83.98177170601704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>104.3151417514983</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>345.7557894106411</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>134.5916654001853</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.019807611473147</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>174.9740119554608</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>26.70391688093346</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.8725945129789</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>114.7205611007735</v>
       </c>
       <c r="F19" t="n">
-        <v>28.23631843387994</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>57.24347904696365</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.5813113004308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>56.03635866485011</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520908</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161936035</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.8170508184362</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>187.2551470558694</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>36.00502760852017</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3910,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.295537883724</v>
+        <v>1845.410930903094</v>
       </c>
       <c r="C2" t="n">
-        <v>1389.333020943313</v>
+        <v>1845.410930903094</v>
       </c>
       <c r="D2" t="n">
-        <v>1389.333020943313</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923658</v>
+        <v>2609.016021139985</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.034709923658</v>
+        <v>2235.550262878905</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.895377947846</v>
+        <v>1845.410930903094</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4398,40 +4398,40 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S3" t="n">
         <v>2435.471302619336</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2865.563196315069</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>2865.563196315069</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>2715.446556902734</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>2715.446556902734</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="F4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="G4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962273</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.645724237293</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.35556815965</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886951</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068846</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596431</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193524</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="U4" t="n">
-        <v>3044.089480193524</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="V4" t="n">
-        <v>3044.089480193524</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="W4" t="n">
-        <v>3044.089480193524</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="X4" t="n">
-        <v>2865.563196315069</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="Y4" t="n">
-        <v>2865.563196315069</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259409</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.6040489720652</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>248.6678660441583</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.124011696102</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>994.1614947556907</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>635.8957961489402</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>635.8957961489402</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>224.9098913593327</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>213.8778452447332</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2645.294662133639</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>2271.828903872559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760224</v>
+        <v>1881.689571896747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.2025176122982</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>497.2663346843913</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.2025176122982</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8388927589092</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2260.047837506405</v>
+        <v>2203.175953615025</v>
       </c>
       <c r="T13" t="n">
-        <v>2040.446372529346</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.371145873544</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V13" t="n">
-        <v>1496.686657667657</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W13" t="n">
-        <v>1207.269487630696</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X13" t="n">
-        <v>979.2799367326791</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.4873575891489</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2978.516248701937</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>2809.580065774031</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>2659.463426361695</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>2511.550332779302</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>2364.660385281391</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>2364.660385281391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>2364.660385281391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>4623.787448650998</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>4440.932614305902</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>4221.331149328844</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>3932.255922673042</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>3677.571434467155</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>3388.154264430194</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>3160.164713532177</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>3160.164713532177</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273912</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273912</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876697</v>
+        <v>984.5467179762928</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597628</v>
+        <v>815.6105350483859</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597628</v>
+        <v>665.4938956360502</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773697</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1394.18473370455</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179095</v>
+        <v>1166.195182806533</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,34 +5768,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718716</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>613.6374994204294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>465.7244058380363</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>318.8344583401259</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>151.6383590550059</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>151.6383590550059</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156759</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314346</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168612</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>95.5840502527391</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239598</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.708435085172</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797191</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154118</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6470,43 +6470,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239598</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.212916266271</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820878</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876715</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597647</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474289</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258109</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602306</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396419</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359459</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614414</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179113</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.580456911441</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.021500885211</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741681</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7166,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,10 +7190,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7649,10 +7649,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.3554390986485</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.052274046183868</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.56191943763205</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.8370608760583</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>31.71340154579572</v>
       </c>
       <c r="F19" t="n">
-        <v>117.1847295890513</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>24.02235727160186</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>31.77834493961042</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.003342051664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>111.2104624337777</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303756</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,10 +25123,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>48.39475227997582</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>32.89260457060092</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>99.2678512807216</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.41514078729233e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405275</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26433,7 +26433,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26445,13 +26445,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812544</v>
+        <v>-996598.2799812534</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463386</v>
+        <v>332146.4657463375</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463385</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>82063.71419534922</v>
+        <v>82028.97626991443</v>
       </c>
       <c r="F6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772687</v>
       </c>
       <c r="G6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="H6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="I6" t="n">
-        <v>407476.1760027048</v>
+        <v>407441.4380772689</v>
       </c>
       <c r="J6" t="n">
-        <v>189944.973605427</v>
+        <v>189910.2356799915</v>
       </c>
       <c r="K6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="L6" t="n">
-        <v>407476.1760027052</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="M6" t="n">
-        <v>322421.148067193</v>
+        <v>322386.4101417574</v>
       </c>
       <c r="N6" t="n">
-        <v>407476.1760027051</v>
+        <v>407441.4380772688</v>
       </c>
       <c r="O6" t="n">
-        <v>407476.1760027049</v>
+        <v>407441.4380772693</v>
       </c>
       <c r="P6" t="n">
-        <v>407476.1760027048</v>
+        <v>407441.4380772692</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022921</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,22 +26978,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>129.4860509221552</v>
       </c>
       <c r="E2" t="n">
-        <v>184.7432103887292</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>48.96863434936699</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530113</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>362.4386851003781</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>186.5668494326243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>64.63370131219531</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>190.2926226358221</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.485179306771954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.02380761802704</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.473513743199331e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963271</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319862</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>324.9782573297434</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356895</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>266.3926848685833</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>391.6051949514468</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>277.2922978908097</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875417</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1368183553844</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317042</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558152</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>128.5512458942243</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>253.0508151715726</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>134.6960534463653</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,10 +36999,10 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060472</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
